--- a/States M1.xlsx
+++ b/States M1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="342">
   <si>
     <t>Y0Y1</t>
   </si>
@@ -736,19 +736,336 @@
   </si>
   <si>
     <t>G5B5</t>
+  </si>
+  <si>
+    <t>U1+U6</t>
+  </si>
+  <si>
+    <t>U2+U5</t>
+  </si>
+  <si>
+    <t>U3+U4</t>
+  </si>
+  <si>
+    <t>V1+V6</t>
+  </si>
+  <si>
+    <t>V2+V5</t>
+  </si>
+  <si>
+    <t>V3+V4</t>
+  </si>
+  <si>
+    <t>U'6=U3</t>
+  </si>
+  <si>
+    <t>U'7</t>
+  </si>
+  <si>
+    <t>V'6=V3</t>
+  </si>
+  <si>
+    <t>V'7</t>
+  </si>
+  <si>
+    <t>U158U159</t>
+  </si>
+  <si>
+    <t>V158V159</t>
+  </si>
+  <si>
+    <t>U159</t>
+  </si>
+  <si>
+    <t>V159</t>
+  </si>
+  <si>
+    <t>U158</t>
+  </si>
+  <si>
+    <t>U157</t>
+  </si>
+  <si>
+    <t>U156</t>
+  </si>
+  <si>
+    <t>U155</t>
+  </si>
+  <si>
+    <t>U154</t>
+  </si>
+  <si>
+    <t>U153</t>
+  </si>
+  <si>
+    <t>V153</t>
+  </si>
+  <si>
+    <t>V154</t>
+  </si>
+  <si>
+    <t>V155</t>
+  </si>
+  <si>
+    <t>V156</t>
+  </si>
+  <si>
+    <t>U153+U158</t>
+  </si>
+  <si>
+    <t>U154+U157</t>
+  </si>
+  <si>
+    <t>U155+U156</t>
+  </si>
+  <si>
+    <t>V153+V158</t>
+  </si>
+  <si>
+    <t>V154+V157</t>
+  </si>
+  <si>
+    <t>U'310=U155</t>
+  </si>
+  <si>
+    <t>U'311</t>
+  </si>
+  <si>
+    <t>V'311</t>
+  </si>
+  <si>
+    <t>Y310</t>
+  </si>
+  <si>
+    <t>Y310Y311</t>
+  </si>
+  <si>
+    <t>Y311</t>
+  </si>
+  <si>
+    <t>Y310-16</t>
+  </si>
+  <si>
+    <t>V'310-128</t>
+  </si>
+  <si>
+    <t>U'310-128</t>
+  </si>
+  <si>
+    <t>Y311-16</t>
+  </si>
+  <si>
+    <t>V'311-128</t>
+  </si>
+  <si>
+    <t>U'311-128</t>
+  </si>
+  <si>
+    <t>U160U161</t>
+  </si>
+  <si>
+    <t>V160V161</t>
+  </si>
+  <si>
+    <t>V157</t>
+  </si>
+  <si>
+    <t>V158</t>
+  </si>
+  <si>
+    <t>V155+V156</t>
+  </si>
+  <si>
+    <t>V'310=C155</t>
+  </si>
+  <si>
+    <t>R310=mult1+mult2</t>
+  </si>
+  <si>
+    <t>G310=mult1-mult2-mult3</t>
+  </si>
+  <si>
+    <t>B310=mult1+mult3</t>
+  </si>
+  <si>
+    <t>R310G310</t>
+  </si>
+  <si>
+    <t>G311B311</t>
+  </si>
+  <si>
+    <t>R311=mult1+mult2</t>
+  </si>
+  <si>
+    <t>G311=mult1-mult2-mult3</t>
+  </si>
+  <si>
+    <t>B311=mult1+mult3</t>
+  </si>
+  <si>
+    <t>B310R311</t>
+  </si>
+  <si>
+    <t>Y312Y313</t>
+  </si>
+  <si>
+    <t>U154+U159</t>
+  </si>
+  <si>
+    <t>U155+U158</t>
+  </si>
+  <si>
+    <t>U156+U157</t>
+  </si>
+  <si>
+    <t>U'312=U156</t>
+  </si>
+  <si>
+    <t>U'313</t>
+  </si>
+  <si>
+    <t>V154+V159</t>
+  </si>
+  <si>
+    <t>V155+V158</t>
+  </si>
+  <si>
+    <t>V156+V157</t>
+  </si>
+  <si>
+    <t>V'312=V156</t>
+  </si>
+  <si>
+    <t>V'313</t>
+  </si>
+  <si>
+    <t>Y312-16</t>
+  </si>
+  <si>
+    <t>V'312-128</t>
+  </si>
+  <si>
+    <t>U'312-128</t>
+  </si>
+  <si>
+    <t>U'313-128</t>
+  </si>
+  <si>
+    <t>V'313-128</t>
+  </si>
+  <si>
+    <t>Y313-16</t>
+  </si>
+  <si>
+    <t>G312=mult1-mult2-mult3</t>
+  </si>
+  <si>
+    <t>B312=mult1+mult3</t>
+  </si>
+  <si>
+    <t>R312=mult1+mult2</t>
+  </si>
+  <si>
+    <t>R313=mult1+mult2</t>
+  </si>
+  <si>
+    <t>G313=mult1-mult2-mult3</t>
+  </si>
+  <si>
+    <t>B313=mult1+mult3</t>
+  </si>
+  <si>
+    <t>Y312</t>
+  </si>
+  <si>
+    <t>Y313</t>
+  </si>
+  <si>
+    <t>R312G312</t>
+  </si>
+  <si>
+    <t>B312R313</t>
+  </si>
+  <si>
+    <t>G313B313</t>
+  </si>
+  <si>
+    <t>R316G316</t>
+  </si>
+  <si>
+    <t>B316R317</t>
+  </si>
+  <si>
+    <t>G317B317</t>
+  </si>
+  <si>
+    <t>Y317-16</t>
+  </si>
+  <si>
+    <t>V'317-128</t>
+  </si>
+  <si>
+    <t>U'317-128</t>
+  </si>
+  <si>
+    <t>G316=mult1-mult2-mult3</t>
+  </si>
+  <si>
+    <t>R317=mult1+mult2</t>
+  </si>
+  <si>
+    <t>B317=mult1+mult3</t>
+  </si>
+  <si>
+    <t>U'317</t>
+  </si>
+  <si>
+    <t>G317=mult1-mult2-mult3</t>
+  </si>
+  <si>
+    <t>R316=mult1+mult2</t>
+  </si>
+  <si>
+    <t>B316=mult1+mult3</t>
+  </si>
+  <si>
+    <t>U'316-128</t>
+  </si>
+  <si>
+    <t>V'316-128</t>
+  </si>
+  <si>
+    <t>U162U163</t>
+  </si>
+  <si>
+    <t>V162V163</t>
+  </si>
+  <si>
+    <t>GOTO STATE G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,6 +1102,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -813,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -823,6 +1146,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1746,11 +2079,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK42"/>
+  <dimension ref="A1:AY42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC34" sqref="AC34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY10" sqref="AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1771,21 +2104,30 @@
     <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="10"/>
     <col min="30" max="30" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.42578125" style="8" customWidth="1"/>
-    <col min="32" max="32" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15.7109375" customWidth="1"/>
     <col min="35" max="35" width="20.7109375" customWidth="1"/>
-    <col min="36" max="36" width="16.140625" customWidth="1"/>
-    <col min="37" max="37" width="21.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="22" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.85546875" customWidth="1"/>
+    <col min="47" max="47" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.140625" customWidth="1"/>
+    <col min="50" max="50" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1829,7 +2171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1896,8 +2238,24 @@
       <c r="Z2">
         <v>146952</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AI2">
+        <v>156</v>
+      </c>
+      <c r="AM2">
+        <v>38480</v>
+      </c>
+      <c r="AN2">
+        <v>38481</v>
+      </c>
+      <c r="AO2">
+        <v>57880</v>
+      </c>
+      <c r="AS2">
+        <v>57881</v>
+      </c>
+      <c r="AU2" s="9"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2295,34 @@
       <c r="Z3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AD3" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI3" s="9"/>
+      <c r="AL3" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1969,8 +2353,36 @@
       <c r="Z4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AJ4" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="AS4" s="9"/>
+      <c r="AV4" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1995,8 +2407,20 @@
       <c r="AA5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2006,8 +2430,15 @@
       <c r="Y6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AE6" s="11"/>
+      <c r="AQ6" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="AY6" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2017,23 +2448,38 @@
       <c r="Z7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AF7" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="AS7" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AE9" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR9" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AT10" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2046,8 +2492,16 @@
       <c r="S11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM11" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="AP11" s="9"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2060,8 +2514,16 @@
       <c r="S12" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM12" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP12" s="9"/>
+    </row>
+    <row r="13" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2092,8 +2554,21 @@
       <c r="Y13" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AE13" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF13" s="8"/>
+      <c r="AJ13" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP13" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AV13" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2124,8 +2599,21 @@
       <c r="Y14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AE14" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF14" s="8"/>
+      <c r="AJ14" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP14" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV14" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2156,8 +2644,21 @@
       <c r="Y15" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AE15" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF15" s="8"/>
+      <c r="AJ15" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AP15" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AV15" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2188,8 +2689,21 @@
       <c r="Y16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AE16" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF16" s="8"/>
+      <c r="AJ16" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP16" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="AV16" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2217,8 +2731,21 @@
       <c r="Y17" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AE17" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF17" s="8"/>
+      <c r="AJ17" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP17" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV17" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2246,18 +2773,35 @@
       <c r="Y18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AE18" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF18" s="8"/>
+      <c r="AJ18" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP18" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV18" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AE19"/>
+      <c r="AF19" s="8"/>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AE20"/>
+      <c r="AF20" s="8"/>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2282,8 +2826,21 @@
       <c r="Z21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AE21"/>
+      <c r="AF21" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AK21" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ21" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="AW21" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2308,8 +2865,21 @@
       <c r="Z22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AE22"/>
+      <c r="AF22" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK22" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="AQ22" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AW22" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2334,8 +2904,21 @@
       <c r="Z23" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AE23"/>
+      <c r="AF23" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK23" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AQ23" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW23" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2360,8 +2943,25 @@
       <c r="Z24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AE24"/>
+      <c r="AF24" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK24" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ24" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AT24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU24" s="13"/>
+      <c r="AW24" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2983,21 @@
       <c r="Z25" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AE25"/>
+      <c r="AF25" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK25" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ25" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW25" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2403,18 +3016,31 @@
       <c r="Z26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AE26"/>
+      <c r="AF26" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK26" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ26" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW26" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2454,8 +3080,42 @@
       <c r="X29">
         <v>72684</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z29">
+        <v>21</v>
+      </c>
+      <c r="AA29">
+        <v>21</v>
+      </c>
+      <c r="AF29">
+        <v>21</v>
+      </c>
+      <c r="AG29">
+        <v>21</v>
+      </c>
+      <c r="AH29">
+        <v>72684</v>
+      </c>
+      <c r="AJ29">
+        <v>72684</v>
+      </c>
+      <c r="AK29"/>
+      <c r="AL29">
+        <v>21</v>
+      </c>
+      <c r="AM29">
+        <v>21</v>
+      </c>
+      <c r="AN29">
+        <v>72684</v>
+      </c>
+      <c r="AP29">
+        <v>72684</v>
+      </c>
+      <c r="AV29">
+        <v>72684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2495,8 +3155,47 @@
       <c r="X30" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z30" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA30" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF30" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG30" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH30" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ30" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK30"/>
+      <c r="AL30" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM30" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN30" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP30" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR30" s="9"/>
+      <c r="AS30" s="9"/>
+      <c r="AV30" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AK31"/>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2554,8 +3253,59 @@
       <c r="Y32">
         <v>25624</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z32">
+        <v>52</v>
+      </c>
+      <c r="AA32">
+        <v>52</v>
+      </c>
+      <c r="AF32">
+        <v>52</v>
+      </c>
+      <c r="AG32">
+        <v>52</v>
+      </c>
+      <c r="AH32">
+        <v>104595</v>
+      </c>
+      <c r="AI32">
+        <v>25624</v>
+      </c>
+      <c r="AJ32">
+        <v>104595</v>
+      </c>
+      <c r="AK32">
+        <v>25624</v>
+      </c>
+      <c r="AL32">
+        <v>52</v>
+      </c>
+      <c r="AM32">
+        <v>52</v>
+      </c>
+      <c r="AN32">
+        <v>104595</v>
+      </c>
+      <c r="AO32">
+        <v>25624</v>
+      </c>
+      <c r="AP32">
+        <v>104595</v>
+      </c>
+      <c r="AQ32">
+        <v>25624</v>
+      </c>
+      <c r="AU32">
+        <v>25624</v>
+      </c>
+      <c r="AV32">
+        <v>104595</v>
+      </c>
+      <c r="AW32">
+        <v>25624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2613,8 +3363,62 @@
       <c r="Y33" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z33" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF33" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG33" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH33" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI33" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ33" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK33" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL33" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM33" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN33" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO33" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AP33" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ33" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU33" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV33" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW33" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AK34"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2672,8 +3476,59 @@
       <c r="Y35">
         <v>53281</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z35">
+        <v>159</v>
+      </c>
+      <c r="AA35">
+        <v>159</v>
+      </c>
+      <c r="AF35">
+        <v>159</v>
+      </c>
+      <c r="AG35">
+        <v>159</v>
+      </c>
+      <c r="AH35">
+        <v>132251</v>
+      </c>
+      <c r="AI35">
+        <v>53281</v>
+      </c>
+      <c r="AJ35">
+        <v>132251</v>
+      </c>
+      <c r="AK35">
+        <v>53281</v>
+      </c>
+      <c r="AL35">
+        <v>159</v>
+      </c>
+      <c r="AM35">
+        <v>159</v>
+      </c>
+      <c r="AN35">
+        <v>132251</v>
+      </c>
+      <c r="AO35">
+        <v>53281</v>
+      </c>
+      <c r="AP35">
+        <v>132251</v>
+      </c>
+      <c r="AQ35">
+        <v>53281</v>
+      </c>
+      <c r="AU35">
+        <v>53281</v>
+      </c>
+      <c r="AV35">
+        <v>132251</v>
+      </c>
+      <c r="AW35">
+        <v>53281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2731,8 +3586,59 @@
       <c r="Y36" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z36" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA36" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF36" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG36" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH36" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI36" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ36" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK36" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL36" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM36" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN36" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AO36" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AP36" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ36" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU36" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="AV36" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="AW36" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -2754,8 +3660,26 @@
       <c r="U38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z38" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA38" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF38" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG38" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL38" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM38" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -2777,8 +3701,26 @@
       <c r="V39" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB39" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG39" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH39" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM39" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN39" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2800,8 +3742,26 @@
       <c r="Y40" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AI40" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK40" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO40" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ40" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="AU40" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="AW40" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2823,8 +3783,28 @@
       <c r="Z41" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AJ41" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AK41"/>
+      <c r="AL41" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AP41" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AR41" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="AS41" s="9"/>
+      <c r="AV41" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="AX41" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2845,11 +3825,30 @@
       </c>
       <c r="Y42" t="s">
         <v>228</v>
+      </c>
+      <c r="AI42" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK42" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO42" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AQ42" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="AU42" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="AW42" s="9" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/States M1.xlsx
+++ b/States M1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="338">
   <si>
     <t>Y0Y1</t>
   </si>
@@ -114,12 +114,6 @@
     <t>U[5]</t>
   </si>
   <si>
-    <t>U[6]</t>
-  </si>
-  <si>
-    <t>V[6]</t>
-  </si>
-  <si>
     <t>Y[0]</t>
   </si>
   <si>
@@ -145,12 +139,6 @@
   </si>
   <si>
     <t>Mult3_OP2</t>
-  </si>
-  <si>
-    <t>U[7]</t>
-  </si>
-  <si>
-    <t>V[7]</t>
   </si>
   <si>
     <t>Y2Y3</t>
@@ -1471,70 +1459,70 @@
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
         <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -1566,172 +1554,172 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
         <v>65</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="2"/>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="2"/>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -1763,28 +1751,28 @@
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
         <v>96</v>
       </c>
-      <c r="D30" t="s">
-        <v>100</v>
-      </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" t="s">
         <v>121</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
         <v>125</v>
-      </c>
-      <c r="M30" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.2">
@@ -1831,40 +1819,40 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
         <v>97</v>
       </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
       <c r="E33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" t="s">
         <v>114</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>115</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" t="s">
         <v>118</v>
       </c>
-      <c r="H33" t="s">
-        <v>119</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J33" t="s">
-        <v>122</v>
-      </c>
       <c r="K33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
@@ -1911,40 +1899,40 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
         <v>98</v>
       </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
       <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" t="s">
         <v>115</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>114</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" t="s">
         <v>119</v>
       </c>
-      <c r="H36" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36" t="s">
-        <v>123</v>
-      </c>
       <c r="K36" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
@@ -1954,76 +1942,76 @@
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="2"/>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I39" s="2"/>
       <c r="K39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C40" s="2"/>
       <c r="F40" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I40" s="2"/>
       <c r="L40" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C42" s="2"/>
       <c r="F42" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I42" s="2"/>
       <c r="L42" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
@@ -2079,11 +2067,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY42"/>
+  <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY10" sqref="AY10"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2167,8 +2155,47 @@
       <c r="M1">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>46</v>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.2">
@@ -2260,62 +2287,62 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="X3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Z3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AL3" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AP3" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AT3" s="9"/>
       <c r="AU3" s="9"/>
@@ -2327,59 +2354,59 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="R4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="S4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="T4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="X4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Y4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Z4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AK4" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AP4" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AS4" s="9"/>
       <c r="AV4" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
@@ -2425,17 +2452,17 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AE6" s="11"/>
       <c r="AQ6" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AY6" s="14" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.2">
@@ -2443,16 +2470,16 @@
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Z7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AS7" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.2">
@@ -2465,10 +2492,10 @@
         <v>11</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AR9" s="9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.2">
@@ -2476,50 +2503,50 @@
         <v>12</v>
       </c>
       <c r="AT10" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AM11" s="9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AP11" s="9"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AF12" s="9"/>
       <c r="AG12" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AM12" s="9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AP12" s="9"/>
     </row>
@@ -2552,20 +2579,20 @@
         <v>9</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF13" s="8"/>
       <c r="AJ13" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AP13" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.2">
@@ -2594,23 +2621,23 @@
         <v>9</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s">
         <v>10</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AF14" s="8"/>
       <c r="AJ14" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AP14" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.2">
@@ -2633,29 +2660,29 @@
         <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s">
         <v>10</v>
       </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AF15" s="8"/>
       <c r="AJ15" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AP15" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.2">
@@ -2663,19 +2690,19 @@
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>
@@ -2684,23 +2711,23 @@
         <v>10</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Y16" t="s">
         <v>13</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AF16" s="8"/>
       <c r="AJ16" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AP16" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.2">
@@ -2720,29 +2747,29 @@
         <v>10</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P17" t="s">
         <v>13</v>
       </c>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AE17" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF17" s="8"/>
       <c r="AJ17" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AP17" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AV17" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.2">
@@ -2750,16 +2777,16 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
@@ -2768,42 +2795,106 @@
         <v>13</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y18" t="s">
         <v>14</v>
       </c>
       <c r="AE18" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AF18" s="8"/>
       <c r="AJ18" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AP18" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AV18" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>149</v>
       </c>
       <c r="AE19"/>
-      <c r="AF19" s="8"/>
+      <c r="AF19" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK19" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ19" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW19" s="9" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>16</v>
       </c>
       <c r="AE20"/>
-      <c r="AF20" s="8"/>
+      <c r="AF20" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK20" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ20" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW20" s="9" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -2815,1034 +2906,946 @@
         <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="P21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AE21"/>
       <c r="AF21" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AK21" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AQ21" s="9" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AW21" s="9" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Z22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE22"/>
       <c r="AF22" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AK22" s="11" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AQ22" s="9" t="s">
-        <v>263</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="AT22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU22" s="13"/>
       <c r="AW22" s="9" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AE23"/>
       <c r="AF23" s="11" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AK23" s="11" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AQ23" s="9" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="AW23" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Z24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE24"/>
       <c r="AF24" s="11" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AK24" s="11" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="AQ24" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="AT24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU24" s="13"/>
+        <v>249</v>
+      </c>
       <c r="AW24" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" t="s">
-        <v>154</v>
-      </c>
-      <c r="L25" t="s">
-        <v>154</v>
-      </c>
-      <c r="P25" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE25"/>
-      <c r="AF25" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="AK25" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AQ25" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW25" s="9" t="s">
-        <v>253</v>
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
+      <c r="I25">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>72684</v>
+      </c>
+      <c r="L25">
+        <v>72684</v>
+      </c>
+      <c r="N25">
+        <v>21</v>
+      </c>
+      <c r="O25">
+        <v>21</v>
+      </c>
+      <c r="P25">
+        <v>72684</v>
+      </c>
+      <c r="R25">
+        <v>72684</v>
+      </c>
+      <c r="T25">
+        <v>21</v>
+      </c>
+      <c r="U25">
+        <v>21</v>
+      </c>
+      <c r="V25">
+        <v>72684</v>
+      </c>
+      <c r="X25">
+        <v>72684</v>
+      </c>
+      <c r="Z25">
+        <v>21</v>
+      </c>
+      <c r="AA25">
+        <v>21</v>
+      </c>
+      <c r="AF25">
+        <v>21</v>
+      </c>
+      <c r="AG25">
+        <v>21</v>
+      </c>
+      <c r="AH25">
+        <v>72684</v>
+      </c>
+      <c r="AJ25">
+        <v>72684</v>
+      </c>
+      <c r="AK25"/>
+      <c r="AL25">
+        <v>21</v>
+      </c>
+      <c r="AM25">
+        <v>21</v>
+      </c>
+      <c r="AN25">
+        <v>72684</v>
+      </c>
+      <c r="AP25">
+        <v>72684</v>
+      </c>
+      <c r="AV25">
+        <v>72684</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>153</v>
       </c>
       <c r="I26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J26" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s">
-        <v>17</v>
+        <v>169</v>
+      </c>
+      <c r="N26" t="s">
+        <v>181</v>
+      </c>
+      <c r="O26" t="s">
+        <v>183</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE26"/>
-      <c r="AF26" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AK26" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="AQ26" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW26" s="9" t="s">
-        <v>253</v>
+        <v>189</v>
+      </c>
+      <c r="R26" t="s">
+        <v>194</v>
+      </c>
+      <c r="T26" t="s">
+        <v>178</v>
+      </c>
+      <c r="U26" t="s">
+        <v>209</v>
+      </c>
+      <c r="V26" t="s">
+        <v>214</v>
+      </c>
+      <c r="X26" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG26" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH26" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ26" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK26"/>
+      <c r="AL26" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM26" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN26" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AP26" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AV26" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
+      <c r="AK27"/>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="G28">
+        <v>52</v>
+      </c>
+      <c r="I28">
+        <v>52</v>
+      </c>
+      <c r="J28">
+        <v>104595</v>
+      </c>
+      <c r="K28">
+        <v>25624</v>
+      </c>
+      <c r="L28">
+        <v>104595</v>
+      </c>
+      <c r="M28">
+        <v>25624</v>
+      </c>
+      <c r="N28">
+        <v>52</v>
+      </c>
+      <c r="O28">
+        <v>52</v>
+      </c>
+      <c r="P28">
+        <v>104595</v>
+      </c>
+      <c r="Q28">
+        <v>25624</v>
+      </c>
+      <c r="R28">
+        <v>104595</v>
+      </c>
+      <c r="S28">
+        <v>25624</v>
+      </c>
+      <c r="T28">
+        <v>52</v>
+      </c>
+      <c r="U28">
+        <v>52</v>
+      </c>
+      <c r="V28">
+        <v>104595</v>
+      </c>
+      <c r="W28">
+        <v>25624</v>
+      </c>
+      <c r="X28">
+        <v>104595</v>
+      </c>
+      <c r="Y28">
+        <v>25624</v>
+      </c>
+      <c r="Z28">
+        <v>52</v>
+      </c>
+      <c r="AA28">
+        <v>52</v>
+      </c>
+      <c r="AF28">
+        <v>52</v>
+      </c>
+      <c r="AG28">
+        <v>52</v>
+      </c>
+      <c r="AH28">
+        <v>104595</v>
+      </c>
+      <c r="AI28">
+        <v>25624</v>
+      </c>
+      <c r="AJ28">
+        <v>104595</v>
+      </c>
+      <c r="AK28">
+        <v>25624</v>
+      </c>
+      <c r="AL28">
+        <v>52</v>
+      </c>
+      <c r="AM28">
+        <v>52</v>
+      </c>
+      <c r="AN28">
+        <v>104595</v>
+      </c>
+      <c r="AO28">
+        <v>25624</v>
+      </c>
+      <c r="AP28">
+        <v>104595</v>
+      </c>
+      <c r="AQ28">
+        <v>25624</v>
+      </c>
+      <c r="AU28">
+        <v>25624</v>
+      </c>
+      <c r="AV28">
+        <v>104595</v>
+      </c>
+      <c r="AW28">
+        <v>25624</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29">
-        <v>21</v>
-      </c>
-      <c r="I29">
-        <v>21</v>
-      </c>
-      <c r="J29">
-        <v>72684</v>
-      </c>
-      <c r="L29">
-        <v>72684</v>
-      </c>
-      <c r="N29">
-        <v>21</v>
-      </c>
-      <c r="O29">
-        <v>21</v>
-      </c>
-      <c r="P29">
-        <v>72684</v>
-      </c>
-      <c r="R29">
-        <v>72684</v>
-      </c>
-      <c r="T29">
-        <v>21</v>
-      </c>
-      <c r="U29">
-        <v>21</v>
-      </c>
-      <c r="V29">
-        <v>72684</v>
-      </c>
-      <c r="X29">
-        <v>72684</v>
-      </c>
-      <c r="Z29">
-        <v>21</v>
-      </c>
-      <c r="AA29">
-        <v>21</v>
-      </c>
-      <c r="AF29">
-        <v>21</v>
-      </c>
-      <c r="AG29">
-        <v>21</v>
-      </c>
-      <c r="AH29">
-        <v>72684</v>
-      </c>
-      <c r="AJ29">
-        <v>72684</v>
-      </c>
-      <c r="AK29"/>
-      <c r="AL29">
-        <v>21</v>
-      </c>
-      <c r="AM29">
-        <v>21</v>
-      </c>
-      <c r="AN29">
-        <v>72684</v>
-      </c>
-      <c r="AP29">
-        <v>72684</v>
-      </c>
-      <c r="AV29">
-        <v>72684</v>
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" t="s">
+        <v>170</v>
+      </c>
+      <c r="M29" t="s">
+        <v>171</v>
+      </c>
+      <c r="N29" t="s">
+        <v>153</v>
+      </c>
+      <c r="O29" t="s">
+        <v>156</v>
+      </c>
+      <c r="P29" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>193</v>
+      </c>
+      <c r="R29" t="s">
+        <v>195</v>
+      </c>
+      <c r="S29" t="s">
+        <v>196</v>
+      </c>
+      <c r="T29" t="s">
+        <v>179</v>
+      </c>
+      <c r="U29" t="s">
+        <v>208</v>
+      </c>
+      <c r="V29" t="s">
+        <v>215</v>
+      </c>
+      <c r="W29" t="s">
+        <v>216</v>
+      </c>
+      <c r="X29" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA29" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF29" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG29" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH29" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI29" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ29" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK29" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL29" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM29" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN29" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO29" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AP29" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ29" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AU29" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV29" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AW29" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" t="s">
-        <v>160</v>
-      </c>
-      <c r="J30" t="s">
-        <v>167</v>
-      </c>
-      <c r="L30" t="s">
-        <v>173</v>
-      </c>
-      <c r="N30" t="s">
-        <v>185</v>
-      </c>
-      <c r="O30" t="s">
-        <v>187</v>
-      </c>
-      <c r="P30" t="s">
-        <v>193</v>
-      </c>
-      <c r="R30" t="s">
-        <v>198</v>
-      </c>
-      <c r="T30" t="s">
-        <v>182</v>
-      </c>
-      <c r="U30" t="s">
-        <v>213</v>
-      </c>
-      <c r="V30" t="s">
-        <v>218</v>
-      </c>
-      <c r="X30" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z30" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA30" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF30" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="AG30" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH30" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="AJ30" s="9" t="s">
-        <v>278</v>
-      </c>
       <c r="AK30"/>
-      <c r="AL30" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="AM30" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN30" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="AP30" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="AR30" s="9"/>
-      <c r="AS30" s="9"/>
-      <c r="AV30" s="9" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="AK31"/>
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31">
+        <v>159</v>
+      </c>
+      <c r="I31">
+        <v>159</v>
+      </c>
+      <c r="J31">
+        <v>132251</v>
+      </c>
+      <c r="K31">
+        <v>53281</v>
+      </c>
+      <c r="L31">
+        <v>132251</v>
+      </c>
+      <c r="M31">
+        <v>53281</v>
+      </c>
+      <c r="N31">
+        <v>159</v>
+      </c>
+      <c r="O31">
+        <v>159</v>
+      </c>
+      <c r="P31">
+        <v>132251</v>
+      </c>
+      <c r="Q31">
+        <v>53281</v>
+      </c>
+      <c r="R31">
+        <v>132251</v>
+      </c>
+      <c r="S31">
+        <v>53281</v>
+      </c>
+      <c r="T31">
+        <v>159</v>
+      </c>
+      <c r="U31">
+        <v>159</v>
+      </c>
+      <c r="V31">
+        <v>132251</v>
+      </c>
+      <c r="W31">
+        <v>53281</v>
+      </c>
+      <c r="X31">
+        <v>132251</v>
+      </c>
+      <c r="Y31">
+        <v>53281</v>
+      </c>
+      <c r="Z31">
+        <v>159</v>
+      </c>
+      <c r="AA31">
+        <v>159</v>
+      </c>
+      <c r="AF31">
+        <v>159</v>
+      </c>
+      <c r="AG31">
+        <v>159</v>
+      </c>
+      <c r="AH31">
+        <v>132251</v>
+      </c>
+      <c r="AI31">
+        <v>53281</v>
+      </c>
+      <c r="AJ31">
+        <v>132251</v>
+      </c>
+      <c r="AK31">
+        <v>53281</v>
+      </c>
+      <c r="AL31">
+        <v>159</v>
+      </c>
+      <c r="AM31">
+        <v>159</v>
+      </c>
+      <c r="AN31">
+        <v>132251</v>
+      </c>
+      <c r="AO31">
+        <v>53281</v>
+      </c>
+      <c r="AP31">
+        <v>132251</v>
+      </c>
+      <c r="AQ31">
+        <v>53281</v>
+      </c>
+      <c r="AU31">
+        <v>53281</v>
+      </c>
+      <c r="AV31">
+        <v>132251</v>
+      </c>
+      <c r="AW31">
+        <v>53281</v>
+      </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32">
-        <v>52</v>
-      </c>
-      <c r="I32">
-        <v>52</v>
-      </c>
-      <c r="J32">
-        <v>104595</v>
-      </c>
-      <c r="K32">
-        <v>25624</v>
-      </c>
-      <c r="L32">
-        <v>104595</v>
-      </c>
-      <c r="M32">
-        <v>25624</v>
-      </c>
-      <c r="N32">
-        <v>52</v>
-      </c>
-      <c r="O32">
-        <v>52</v>
-      </c>
-      <c r="P32">
-        <v>104595</v>
-      </c>
-      <c r="Q32">
-        <v>25624</v>
-      </c>
-      <c r="R32">
-        <v>104595</v>
-      </c>
-      <c r="S32">
-        <v>25624</v>
-      </c>
-      <c r="T32">
-        <v>52</v>
-      </c>
-      <c r="U32">
-        <v>52</v>
-      </c>
-      <c r="V32">
-        <v>104595</v>
-      </c>
-      <c r="W32">
-        <v>25624</v>
-      </c>
-      <c r="X32">
-        <v>104595</v>
-      </c>
-      <c r="Y32">
-        <v>25624</v>
-      </c>
-      <c r="Z32">
-        <v>52</v>
-      </c>
-      <c r="AA32">
-        <v>52</v>
-      </c>
-      <c r="AF32">
-        <v>52</v>
-      </c>
-      <c r="AG32">
-        <v>52</v>
-      </c>
-      <c r="AH32">
-        <v>104595</v>
-      </c>
-      <c r="AI32">
-        <v>25624</v>
-      </c>
-      <c r="AJ32">
-        <v>104595</v>
-      </c>
-      <c r="AK32">
-        <v>25624</v>
-      </c>
-      <c r="AL32">
-        <v>52</v>
-      </c>
-      <c r="AM32">
-        <v>52</v>
-      </c>
-      <c r="AN32">
-        <v>104595</v>
-      </c>
-      <c r="AO32">
-        <v>25624</v>
-      </c>
-      <c r="AP32">
-        <v>104595</v>
-      </c>
-      <c r="AQ32">
-        <v>25624</v>
-      </c>
-      <c r="AU32">
-        <v>25624</v>
-      </c>
-      <c r="AV32">
-        <v>104595</v>
-      </c>
-      <c r="AW32">
-        <v>25624</v>
-      </c>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G32" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" t="s">
+        <v>164</v>
+      </c>
+      <c r="L32" t="s">
+        <v>171</v>
+      </c>
+      <c r="M32" t="s">
+        <v>170</v>
+      </c>
+      <c r="N32" t="s">
+        <v>182</v>
+      </c>
+      <c r="O32" t="s">
+        <v>184</v>
+      </c>
+      <c r="P32" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>192</v>
+      </c>
+      <c r="R32" t="s">
+        <v>196</v>
+      </c>
+      <c r="S32" t="s">
+        <v>195</v>
+      </c>
+      <c r="T32" t="s">
+        <v>180</v>
+      </c>
+      <c r="U32" t="s">
+        <v>207</v>
+      </c>
+      <c r="V32" t="s">
+        <v>216</v>
+      </c>
+      <c r="W32" t="s">
+        <v>215</v>
+      </c>
+      <c r="X32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z32" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA32" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF32" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG32" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH32" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI32" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ32" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK32" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL32" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM32" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN32" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO32" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP32" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AQ32" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU32" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AV32" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="AW32" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" t="s">
         <v>158</v>
       </c>
-      <c r="I33" t="s">
-        <v>161</v>
-      </c>
-      <c r="J33" t="s">
-        <v>168</v>
-      </c>
-      <c r="K33" t="s">
-        <v>169</v>
-      </c>
-      <c r="L33" t="s">
-        <v>174</v>
-      </c>
-      <c r="M33" t="s">
-        <v>175</v>
-      </c>
-      <c r="N33" t="s">
-        <v>157</v>
-      </c>
-      <c r="O33" t="s">
-        <v>160</v>
-      </c>
-      <c r="P33" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>197</v>
-      </c>
-      <c r="R33" t="s">
-        <v>199</v>
-      </c>
-      <c r="S33" t="s">
-        <v>200</v>
-      </c>
-      <c r="T33" t="s">
-        <v>183</v>
-      </c>
-      <c r="U33" t="s">
-        <v>212</v>
-      </c>
-      <c r="V33" t="s">
-        <v>219</v>
-      </c>
-      <c r="W33" t="s">
-        <v>220</v>
-      </c>
-      <c r="X33" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z33" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA33" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF33" s="9" t="s">
+      <c r="N34" t="s">
+        <v>185</v>
+      </c>
+      <c r="O34" t="s">
+        <v>186</v>
+      </c>
+      <c r="T34" t="s">
+        <v>210</v>
+      </c>
+      <c r="U34" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z34" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA34" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF34" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="AG33" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="AH33" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI33" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ33" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="AK33" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="AL33" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="AM33" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN33" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="AO33" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="AP33" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="AQ33" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="AU33" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="AV33" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="AW33" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="AK34"/>
+      <c r="AG34" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL34" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM34" s="9" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35">
-        <v>159</v>
-      </c>
-      <c r="I35">
-        <v>159</v>
-      </c>
-      <c r="J35">
-        <v>132251</v>
-      </c>
-      <c r="K35">
-        <v>53281</v>
-      </c>
-      <c r="L35">
-        <v>132251</v>
-      </c>
-      <c r="M35">
-        <v>53281</v>
-      </c>
-      <c r="N35">
-        <v>159</v>
-      </c>
-      <c r="O35">
-        <v>159</v>
-      </c>
-      <c r="P35">
-        <v>132251</v>
-      </c>
-      <c r="Q35">
-        <v>53281</v>
-      </c>
-      <c r="R35">
-        <v>132251</v>
-      </c>
-      <c r="S35">
-        <v>53281</v>
-      </c>
-      <c r="T35">
-        <v>159</v>
-      </c>
-      <c r="U35">
-        <v>159</v>
-      </c>
-      <c r="V35">
-        <v>132251</v>
-      </c>
-      <c r="W35">
-        <v>53281</v>
-      </c>
-      <c r="X35">
-        <v>132251</v>
-      </c>
-      <c r="Y35">
-        <v>53281</v>
-      </c>
-      <c r="Z35">
-        <v>159</v>
-      </c>
-      <c r="AA35">
-        <v>159</v>
-      </c>
-      <c r="AF35">
-        <v>159</v>
-      </c>
-      <c r="AG35">
-        <v>159</v>
-      </c>
-      <c r="AH35">
-        <v>132251</v>
-      </c>
-      <c r="AI35">
-        <v>53281</v>
-      </c>
-      <c r="AJ35">
-        <v>132251</v>
-      </c>
-      <c r="AK35">
-        <v>53281</v>
-      </c>
-      <c r="AL35">
-        <v>159</v>
-      </c>
-      <c r="AM35">
-        <v>159</v>
-      </c>
-      <c r="AN35">
-        <v>132251</v>
-      </c>
-      <c r="AO35">
-        <v>53281</v>
-      </c>
-      <c r="AP35">
-        <v>132251</v>
-      </c>
-      <c r="AQ35">
-        <v>53281</v>
-      </c>
-      <c r="AU35">
-        <v>53281</v>
-      </c>
-      <c r="AV35">
-        <v>132251</v>
-      </c>
-      <c r="AW35">
-        <v>53281</v>
+        <v>91</v>
+      </c>
+      <c r="I35" t="s">
+        <v>161</v>
+      </c>
+      <c r="J35" t="s">
+        <v>162</v>
+      </c>
+      <c r="O35" t="s">
+        <v>187</v>
+      </c>
+      <c r="P35" t="s">
+        <v>188</v>
+      </c>
+      <c r="U35" t="s">
+        <v>212</v>
+      </c>
+      <c r="V35" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA35" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB35" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG35" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH35" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM35" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN35" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s">
-        <v>159</v>
-      </c>
-      <c r="I36" t="s">
-        <v>164</v>
-      </c>
-      <c r="J36" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="K36" t="s">
+        <v>166</v>
+      </c>
+      <c r="M36" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>197</v>
+      </c>
+      <c r="S36" t="s">
+        <v>200</v>
+      </c>
+      <c r="W36" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI36" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK36" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO36" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ36" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU36" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="AW36" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" t="s">
         <v>168</v>
       </c>
-      <c r="L36" t="s">
-        <v>175</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="N37" t="s">
         <v>174</v>
       </c>
-      <c r="N36" t="s">
-        <v>186</v>
-      </c>
-      <c r="O36" t="s">
-        <v>188</v>
-      </c>
-      <c r="P36" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>196</v>
-      </c>
-      <c r="R36" t="s">
-        <v>200</v>
-      </c>
-      <c r="S36" t="s">
+      <c r="R37" t="s">
         <v>199</v>
       </c>
-      <c r="T36" t="s">
-        <v>184</v>
-      </c>
-      <c r="U36" t="s">
-        <v>211</v>
-      </c>
-      <c r="V36" t="s">
-        <v>220</v>
-      </c>
-      <c r="W36" t="s">
-        <v>219</v>
-      </c>
-      <c r="X36" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y36" t="s">
+      <c r="T37" t="s">
+        <v>202</v>
+      </c>
+      <c r="X37" t="s">
         <v>222</v>
       </c>
-      <c r="Z36" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA36" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF36" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="AG36" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="AH36" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI36" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="AJ36" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="AK36" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="AL36" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="AM36" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN36" s="9" t="s">
+      <c r="Z37" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ37" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK37"/>
+      <c r="AL37" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP37" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="AO36" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="AP36" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="AQ36" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="AU36" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="AV36" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="AW36" s="9" t="s">
-        <v>328</v>
+      <c r="AR37" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AS37" s="9"/>
+      <c r="AV37" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX37" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" t="s">
-        <v>163</v>
-      </c>
-      <c r="H38" t="s">
-        <v>162</v>
-      </c>
-      <c r="N38" t="s">
-        <v>189</v>
-      </c>
-      <c r="O38" t="s">
-        <v>190</v>
-      </c>
-      <c r="T38" t="s">
-        <v>214</v>
-      </c>
-      <c r="U38" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z38" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA38" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF38" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG38" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="AL38" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="AM38" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" t="s">
-        <v>165</v>
-      </c>
-      <c r="J39" t="s">
-        <v>166</v>
-      </c>
-      <c r="O39" t="s">
-        <v>191</v>
-      </c>
-      <c r="P39" t="s">
-        <v>192</v>
-      </c>
-      <c r="U39" t="s">
-        <v>216</v>
-      </c>
-      <c r="V39" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA39" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB39" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG39" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH39" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="AM39" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="AN39" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="K40" t="s">
-        <v>170</v>
-      </c>
-      <c r="M40" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" t="s">
+        <v>167</v>
+      </c>
+      <c r="M38" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>198</v>
+      </c>
+      <c r="S38" t="s">
         <v>201</v>
       </c>
-      <c r="S40" t="s">
-        <v>204</v>
-      </c>
-      <c r="W40" t="s">
+      <c r="W38" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y38" t="s">
         <v>224</v>
       </c>
-      <c r="Y40" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI40" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="AK40" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO40" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ40" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="AU40" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="AW40" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="L41" t="s">
-        <v>172</v>
-      </c>
-      <c r="N41" t="s">
-        <v>178</v>
-      </c>
-      <c r="R41" t="s">
-        <v>203</v>
-      </c>
-      <c r="T41" t="s">
-        <v>206</v>
-      </c>
-      <c r="X41" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ41" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK41"/>
-      <c r="AL41" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="AP41" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="AR41" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="AS41" s="9"/>
-      <c r="AV41" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="AX41" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="K42" t="s">
-        <v>171</v>
-      </c>
-      <c r="M42" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>202</v>
-      </c>
-      <c r="S42" t="s">
-        <v>205</v>
-      </c>
-      <c r="W42" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI42" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK42" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="AO42" s="9" t="s">
+      <c r="AI38" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK38" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="AO38" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="AQ38" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="AQ42" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="AU42" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="AW42" s="9" t="s">
+      <c r="AU38" s="9" t="s">
         <v>332</v>
+      </c>
+      <c r="AW38" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/States M1.xlsx
+++ b/States M1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="355">
   <si>
     <t>Y0Y1</t>
   </si>
@@ -849,12 +849,6 @@
     <t>U'311-128</t>
   </si>
   <si>
-    <t>U160U161</t>
-  </si>
-  <si>
-    <t>V160V161</t>
-  </si>
-  <si>
     <t>V157</t>
   </si>
   <si>
@@ -1023,13 +1017,70 @@
     <t>V'316-128</t>
   </si>
   <si>
-    <t>U162U163</t>
-  </si>
-  <si>
-    <t>V162V163</t>
-  </si>
-  <si>
-    <t>GOTO STATE G</t>
+    <t>S_END0</t>
+  </si>
+  <si>
+    <t>S_END1</t>
+  </si>
+  <si>
+    <t>S_END2</t>
+  </si>
+  <si>
+    <t>S_END3</t>
+  </si>
+  <si>
+    <t>S_END4</t>
+  </si>
+  <si>
+    <t>S_END5</t>
+  </si>
+  <si>
+    <t>S_END6</t>
+  </si>
+  <si>
+    <t>S_END7</t>
+  </si>
+  <si>
+    <t>S_END8</t>
+  </si>
+  <si>
+    <t>S_END9</t>
+  </si>
+  <si>
+    <t>S_END10</t>
+  </si>
+  <si>
+    <t>U155+U159</t>
+  </si>
+  <si>
+    <t>U156+U159</t>
+  </si>
+  <si>
+    <t>U157+U158</t>
+  </si>
+  <si>
+    <t>V155+V159</t>
+  </si>
+  <si>
+    <t>V156+V159</t>
+  </si>
+  <si>
+    <t>V157+V158</t>
+  </si>
+  <si>
+    <t>U'314=U157</t>
+  </si>
+  <si>
+    <t>U'315</t>
+  </si>
+  <si>
+    <t>V'314</t>
+  </si>
+  <si>
+    <t>V'315</t>
+  </si>
+  <si>
+    <t>GOTO STATE B</t>
   </si>
 </sst>
 </file>
@@ -2067,11 +2118,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:BA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N19" sqref="N19"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2092,30 +2143,30 @@
     <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="10"/>
-    <col min="30" max="30" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.42578125" style="8" customWidth="1"/>
-    <col min="32" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" customWidth="1"/>
-    <col min="35" max="35" width="20.7109375" customWidth="1"/>
-    <col min="36" max="36" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="10"/>
+    <col min="32" max="32" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.42578125" style="8" customWidth="1"/>
+    <col min="34" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.7109375" customWidth="1"/>
+    <col min="37" max="37" width="20.7109375" customWidth="1"/>
     <col min="38" max="38" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.85546875" customWidth="1"/>
-    <col min="47" max="47" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.140625" customWidth="1"/>
+    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.85546875" customWidth="1"/>
+    <col min="49" max="49" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.140625" customWidth="1"/>
+    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2197,8 +2248,44 @@
       <c r="AA1">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AD1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2265,24 +2352,15 @@
       <c r="Z2">
         <v>146952</v>
       </c>
-      <c r="AI2">
+      <c r="AA2">
+        <v>4</v>
+      </c>
+      <c r="AK2">
         <v>156</v>
       </c>
-      <c r="AM2">
-        <v>38480</v>
-      </c>
-      <c r="AN2">
-        <v>38481</v>
-      </c>
-      <c r="AO2">
-        <v>57880</v>
-      </c>
-      <c r="AS2">
-        <v>57881</v>
-      </c>
-      <c r="AU2" s="9"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AW2" s="9"/>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2322,34 +2400,28 @@
       <c r="Z3" t="s">
         <v>230</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AF3" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AH3" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="AI3" s="9"/>
-      <c r="AL3" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP3" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="AK3" s="9"/>
+      <c r="AN3" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
       <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2380,36 +2452,36 @@
       <c r="Z4" t="s">
         <v>235</v>
       </c>
-      <c r="AJ4" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>291</v>
-      </c>
       <c r="AL4" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="AP4" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="AT4" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AU4" s="9"/>
+      <c r="AX4" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AY4" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="AS4" s="9"/>
-      <c r="AV4" s="9" t="s">
+      <c r="AZ4" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="AW4" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="AX4" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2434,20 +2506,23 @@
       <c r="AA5">
         <v>0</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>0</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>1</v>
       </c>
-      <c r="AP5">
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
         <v>1</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2457,15 +2532,13 @@
       <c r="Y6" t="s">
         <v>231</v>
       </c>
-      <c r="AE6" s="11"/>
-      <c r="AQ6" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="AY6" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AG6" s="11"/>
+      <c r="AS6" s="9"/>
+      <c r="BA6" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2475,38 +2548,32 @@
       <c r="Z7" t="s">
         <v>232</v>
       </c>
-      <c r="AF7" s="9" t="s">
+      <c r="AH7" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="AS7" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AU7" s="9"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AG9" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="AR9" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AT9" s="9"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="AT10" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AV10" s="9"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2519,16 +2586,16 @@
       <c r="S11" t="s">
         <v>205</v>
       </c>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9" t="s">
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="AM11" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="AP11" s="9"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AO11" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AR11" s="9"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2541,16 +2608,16 @@
       <c r="S12" t="s">
         <v>206</v>
       </c>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9" t="s">
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="AM12" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="AP12" s="9"/>
-    </row>
-    <row r="13" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO12" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR12" s="9"/>
+    </row>
+    <row r="13" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2581,21 +2648,24 @@
       <c r="Y13" t="s">
         <v>147</v>
       </c>
-      <c r="AE13" s="9" t="s">
+      <c r="AB13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="AF13" s="8"/>
+      <c r="AH13" s="8"/>
       <c r="AJ13" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="AP13" s="9" t="s">
+      <c r="AR13" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="AV13" s="9" t="s">
+      <c r="AX13" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2626,21 +2696,24 @@
       <c r="Y14" t="s">
         <v>10</v>
       </c>
-      <c r="AE14" s="9" t="s">
+      <c r="AB14" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG14" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="AF14" s="8"/>
+      <c r="AH14" s="8"/>
       <c r="AJ14" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="AP14" s="9" t="s">
+      <c r="AR14" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="AV14" s="9" t="s">
+      <c r="AX14" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2671,21 +2744,24 @@
       <c r="Y15" t="s">
         <v>148</v>
       </c>
-      <c r="AE15" s="9" t="s">
+      <c r="AB15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG15" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="AF15" s="8"/>
+      <c r="AH15" s="8"/>
       <c r="AJ15" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="AP15" s="9" t="s">
+      <c r="AR15" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="AV15" s="9" t="s">
+      <c r="AX15" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2716,21 +2792,24 @@
       <c r="Y16" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="9" t="s">
+      <c r="AB16" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG16" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="AF16" s="8"/>
+      <c r="AH16" s="8"/>
       <c r="AJ16" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="AP16" s="9" t="s">
+      <c r="AR16" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="AV16" s="9" t="s">
+      <c r="AX16" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2758,21 +2837,24 @@
       <c r="Y17" t="s">
         <v>151</v>
       </c>
-      <c r="AE17" s="9" t="s">
+      <c r="AB17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG17" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="AF17" s="8"/>
+      <c r="AH17" s="8"/>
       <c r="AJ17" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="AP17" s="9" t="s">
+      <c r="AR17" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="AV17" s="9" t="s">
+      <c r="AX17" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2800,21 +2882,24 @@
       <c r="Y18" t="s">
         <v>14</v>
       </c>
-      <c r="AE18" s="9" t="s">
+      <c r="AB18" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG18" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="AF18" s="8"/>
+      <c r="AH18" s="8"/>
       <c r="AJ18" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="AP18" s="9" t="s">
+      <c r="AR18" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="AV18" s="9" t="s">
+      <c r="AX18" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2839,21 +2924,24 @@
       <c r="Z19" t="s">
         <v>149</v>
       </c>
-      <c r="AE19"/>
-      <c r="AF19" s="11" t="s">
+      <c r="AB19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG19"/>
+      <c r="AH19" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="AK19" s="11" t="s">
+      <c r="AJ19" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="AQ19" s="9" t="s">
+      <c r="AR19" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="AW19" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY19" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2878,21 +2966,24 @@
       <c r="Z20" t="s">
         <v>16</v>
       </c>
-      <c r="AE20"/>
-      <c r="AF20" s="11" t="s">
+      <c r="AB20" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG20"/>
+      <c r="AH20" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="AK20" s="11" t="s">
+      <c r="AJ20" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="AQ20" s="9" t="s">
+      <c r="AR20" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="AW20" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY20" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2917,21 +3008,24 @@
       <c r="Z21" t="s">
         <v>150</v>
       </c>
-      <c r="AE21"/>
-      <c r="AF21" s="11" t="s">
+      <c r="AB21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG21"/>
+      <c r="AH21" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="AK21" s="11" t="s">
+      <c r="AJ21" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="AQ21" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="AW21" s="9" t="s">
+      <c r="AR21" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AY21" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2956,25 +3050,28 @@
       <c r="Z22" t="s">
         <v>17</v>
       </c>
-      <c r="AE22"/>
-      <c r="AF22" s="11" t="s">
+      <c r="AB22" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG22"/>
+      <c r="AH22" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="AK22" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AQ22" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="AT22" s="12" t="s">
+      <c r="AJ22" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR22" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="AV22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AU22" s="13"/>
-      <c r="AW22" s="9" t="s">
+      <c r="AW22" s="13"/>
+      <c r="AY22" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2996,21 +3093,24 @@
       <c r="Z23" t="s">
         <v>152</v>
       </c>
-      <c r="AE23"/>
-      <c r="AF23" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AK23" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ23" s="9" t="s">
+      <c r="AB23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG23"/>
+      <c r="AH23" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ23" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR23" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="AW23" s="9" t="s">
+      <c r="AY23" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3029,21 +3129,24 @@
       <c r="Z24" t="s">
         <v>18</v>
       </c>
-      <c r="AE24"/>
-      <c r="AF24" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AK24" s="11" t="s">
+      <c r="AB24" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG24"/>
+      <c r="AH24" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AJ24" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="AQ24" s="9" t="s">
+      <c r="AR24" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="AW24" s="9" t="s">
+      <c r="AY24" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3089,36 +3192,42 @@
       <c r="AA25">
         <v>21</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <v>21</v>
       </c>
-      <c r="AG25">
+      <c r="AI25">
         <v>21</v>
-      </c>
-      <c r="AH25">
-        <v>72684</v>
       </c>
       <c r="AJ25">
         <v>72684</v>
       </c>
-      <c r="AK25"/>
       <c r="AL25">
+        <v>72684</v>
+      </c>
+      <c r="AM25"/>
+      <c r="AN25">
         <v>21</v>
       </c>
-      <c r="AM25">
+      <c r="AO25">
         <v>21</v>
-      </c>
-      <c r="AN25">
-        <v>72684</v>
       </c>
       <c r="AP25">
         <v>72684</v>
       </c>
-      <c r="AV25">
+      <c r="AR25">
         <v>72684</v>
       </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AT25">
+        <v>21</v>
+      </c>
+      <c r="AU25">
+        <v>21</v>
+      </c>
+      <c r="AX25">
+        <v>72684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3164,41 +3273,47 @@
       <c r="AA26" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="AF26" s="9" t="s">
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AH26" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="AG26" s="9" t="s">
+      <c r="AI26" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="AH26" s="9" t="s">
+      <c r="AJ26" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="AJ26" s="9" t="s">
+      <c r="AL26" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="AK26"/>
-      <c r="AL26" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="AM26" s="9" t="s">
-        <v>298</v>
-      </c>
+      <c r="AM26"/>
       <c r="AN26" s="9" t="s">
-        <v>303</v>
+        <v>291</v>
+      </c>
+      <c r="AO26" s="9" t="s">
+        <v>296</v>
       </c>
       <c r="AP26" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AV26" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="AK27"/>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="AR26" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AT26" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="AU26" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="AX26" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AM27"/>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3262,17 +3377,11 @@
       <c r="AA28">
         <v>52</v>
       </c>
-      <c r="AF28">
+      <c r="AH28">
         <v>52</v>
       </c>
-      <c r="AG28">
+      <c r="AI28">
         <v>52</v>
-      </c>
-      <c r="AH28">
-        <v>104595</v>
-      </c>
-      <c r="AI28">
-        <v>25624</v>
       </c>
       <c r="AJ28">
         <v>104595</v>
@@ -3281,16 +3390,16 @@
         <v>25624</v>
       </c>
       <c r="AL28">
+        <v>104595</v>
+      </c>
+      <c r="AM28">
+        <v>25624</v>
+      </c>
+      <c r="AN28">
         <v>52</v>
       </c>
-      <c r="AM28">
+      <c r="AO28">
         <v>52</v>
-      </c>
-      <c r="AN28">
-        <v>104595</v>
-      </c>
-      <c r="AO28">
-        <v>25624</v>
       </c>
       <c r="AP28">
         <v>104595</v>
@@ -3298,17 +3407,29 @@
       <c r="AQ28">
         <v>25624</v>
       </c>
+      <c r="AR28">
+        <v>104595</v>
+      </c>
+      <c r="AS28">
+        <v>25624</v>
+      </c>
+      <c r="AT28">
+        <v>52</v>
+      </c>
       <c r="AU28">
-        <v>25624</v>
-      </c>
-      <c r="AV28">
-        <v>104595</v>
+        <v>52</v>
       </c>
       <c r="AW28">
         <v>25624</v>
       </c>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX28">
+        <v>104595</v>
+      </c>
+      <c r="AY28">
+        <v>25624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3372,56 +3493,64 @@
       <c r="AA29" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="AF29" s="9" t="s">
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AH29" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="AG29" s="9" t="s">
+      <c r="AI29" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="AH29" s="9" t="s">
+      <c r="AJ29" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="AI29" s="9" t="s">
+      <c r="AK29" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="AJ29" s="9" t="s">
+      <c r="AL29" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="AK29" s="9" t="s">
+      <c r="AM29" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="AL29" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="AM29" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="AN29" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO29" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="AP29" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ29" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR29" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS29" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="AO29" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="AP29" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="AQ29" s="9" t="s">
-        <v>306</v>
+      <c r="AT29" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="AU29" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="AV29" s="9" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="AW29" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="AK30"/>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="AX29" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="AY29" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AM30"/>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3485,17 +3614,11 @@
       <c r="AA31">
         <v>159</v>
       </c>
-      <c r="AF31">
+      <c r="AH31">
         <v>159</v>
       </c>
-      <c r="AG31">
+      <c r="AI31">
         <v>159</v>
-      </c>
-      <c r="AH31">
-        <v>132251</v>
-      </c>
-      <c r="AI31">
-        <v>53281</v>
       </c>
       <c r="AJ31">
         <v>132251</v>
@@ -3504,16 +3627,16 @@
         <v>53281</v>
       </c>
       <c r="AL31">
+        <v>132251</v>
+      </c>
+      <c r="AM31">
+        <v>53281</v>
+      </c>
+      <c r="AN31">
         <v>159</v>
       </c>
-      <c r="AM31">
+      <c r="AO31">
         <v>159</v>
-      </c>
-      <c r="AN31">
-        <v>132251</v>
-      </c>
-      <c r="AO31">
-        <v>53281</v>
       </c>
       <c r="AP31">
         <v>132251</v>
@@ -3521,17 +3644,29 @@
       <c r="AQ31">
         <v>53281</v>
       </c>
+      <c r="AR31">
+        <v>132251</v>
+      </c>
+      <c r="AS31">
+        <v>53281</v>
+      </c>
+      <c r="AT31">
+        <v>159</v>
+      </c>
       <c r="AU31">
-        <v>53281</v>
-      </c>
-      <c r="AV31">
-        <v>132251</v>
+        <v>159</v>
       </c>
       <c r="AW31">
         <v>53281</v>
       </c>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX31">
+        <v>132251</v>
+      </c>
+      <c r="AY31">
+        <v>53281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3595,60 +3730,68 @@
       <c r="AA32" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="AF32" s="9" t="s">
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AH32" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="AG32" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH32" s="9" t="s">
+      <c r="AI32" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ32" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="AI32" s="9" t="s">
+      <c r="AK32" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="AJ32" s="9" t="s">
+      <c r="AL32" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="AK32" s="9" t="s">
+      <c r="AM32" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="AL32" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AM32" s="9" t="s">
-        <v>300</v>
-      </c>
       <c r="AN32" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO32" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AP32" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AQ32" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR32" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS32" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="AO32" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP32" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="AQ32" s="9" t="s">
-        <v>307</v>
+      <c r="AT32" s="9" t="s">
+        <v>346</v>
       </c>
       <c r="AU32" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="AV32" s="9" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="AW32" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="AX32" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="AY32" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
       <c r="G34" t="s">
         <v>159</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>158</v>
       </c>
       <c r="N34" t="s">
@@ -3669,20 +3812,28 @@
       <c r="AA34" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="AF34" s="9" t="s">
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AH34" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="AG34" s="9" t="s">
+      <c r="AI34" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="AL34" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="AM34" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AN34" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO34" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AT34" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="AU34" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -3710,20 +3861,27 @@
       <c r="AB35" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AG35" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH35" s="9" t="s">
+      <c r="AC35" s="9"/>
+      <c r="AI35" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ35" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="AM35" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="AN35" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AO35" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP35" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU35" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="AV35" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -3745,26 +3903,26 @@
       <c r="Y36" t="s">
         <v>223</v>
       </c>
-      <c r="AI36" s="9" t="s">
-        <v>283</v>
-      </c>
       <c r="AK36" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="AO36" s="9" t="s">
-        <v>311</v>
+        <v>281</v>
+      </c>
+      <c r="AM36" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="AQ36" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="AU36" s="9" t="s">
-        <v>331</v>
+        <v>309</v>
+      </c>
+      <c r="AS36" s="9" t="s">
+        <v>310</v>
       </c>
       <c r="AW36" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="AY36" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -3786,28 +3944,28 @@
       <c r="Z37" t="s">
         <v>225</v>
       </c>
-      <c r="AJ37" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="AK37"/>
       <c r="AL37" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AP37" s="9" t="s">
-        <v>309</v>
+        <v>282</v>
+      </c>
+      <c r="AM37"/>
+      <c r="AN37" s="9" t="s">
+        <v>287</v>
       </c>
       <c r="AR37" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="AS37" s="9"/>
-      <c r="AV37" s="9" t="s">
-        <v>326</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="AT37" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU37" s="9"/>
       <c r="AX37" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="AZ37" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -3829,23 +3987,23 @@
       <c r="Y38" t="s">
         <v>224</v>
       </c>
-      <c r="AI38" s="9" t="s">
-        <v>285</v>
-      </c>
       <c r="AK38" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="AO38" s="9" t="s">
-        <v>310</v>
+        <v>283</v>
+      </c>
+      <c r="AM38" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="AQ38" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AU38" s="9" t="s">
-        <v>332</v>
+        <v>308</v>
+      </c>
+      <c r="AS38" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="AW38" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="AY38" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/States M1.xlsx
+++ b/States M1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="358">
   <si>
     <t>Y0Y1</t>
   </si>
@@ -1081,6 +1081,15 @@
   </si>
   <si>
     <t>GOTO STATE B</t>
+  </si>
+  <si>
+    <t>Y314Y315</t>
+  </si>
+  <si>
+    <t>Y314</t>
+  </si>
+  <si>
+    <t>Y315</t>
   </si>
 </sst>
 </file>
@@ -2121,8 +2130,8 @@
   <dimension ref="A1:BA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH8" sqref="AH8"/>
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM22" sqref="AM22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2358,6 +2367,9 @@
       <c r="AK2">
         <v>156</v>
       </c>
+      <c r="AQ2">
+        <v>157</v>
+      </c>
       <c r="AW2" s="9"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
@@ -2415,7 +2427,9 @@
       </c>
       <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
+      <c r="AT3" s="9" t="s">
+        <v>355</v>
+      </c>
       <c r="AV3" s="9"/>
       <c r="AW3" s="9"/>
       <c r="AZ3" s="9"/>
@@ -2594,6 +2608,9 @@
         <v>313</v>
       </c>
       <c r="AR11" s="9"/>
+      <c r="AU11" s="9" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2616,6 +2633,9 @@
         <v>314</v>
       </c>
       <c r="AR12" s="9"/>
+      <c r="AU12" s="9" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="13" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">

--- a/States M1.xlsx
+++ b/States M1.xlsx
@@ -2130,8 +2130,8 @@
   <dimension ref="A1:BA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM22" sqref="AM22"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/States M1.xlsx
+++ b/States M1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="358">
   <si>
     <t>Y0Y1</t>
   </si>
@@ -2130,8 +2130,8 @@
   <dimension ref="A1:BA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI5" sqref="AI5"/>
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2139,10 +2139,10 @@
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="7" max="8" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -3179,9 +3179,15 @@
       <c r="J25">
         <v>72684</v>
       </c>
+      <c r="K25">
+        <v>72684</v>
+      </c>
       <c r="L25">
         <v>72684</v>
       </c>
+      <c r="M25">
+        <v>72684</v>
+      </c>
       <c r="N25">
         <v>21</v>
       </c>
@@ -3203,7 +3209,13 @@
       <c r="V25">
         <v>72684</v>
       </c>
+      <c r="W25">
+        <v>72684</v>
+      </c>
       <c r="X25">
+        <v>72684</v>
+      </c>
+      <c r="Y25">
         <v>72684</v>
       </c>
       <c r="Z25">
@@ -3260,9 +3272,15 @@
       <c r="J26" t="s">
         <v>163</v>
       </c>
+      <c r="K26" t="s">
+        <v>163</v>
+      </c>
       <c r="L26" t="s">
         <v>169</v>
       </c>
+      <c r="M26" t="s">
+        <v>169</v>
+      </c>
       <c r="N26" t="s">
         <v>181</v>
       </c>
@@ -3284,7 +3302,13 @@
       <c r="V26" t="s">
         <v>214</v>
       </c>
+      <c r="W26" t="s">
+        <v>214</v>
+      </c>
       <c r="X26" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y26" t="s">
         <v>217</v>
       </c>
       <c r="Z26" s="9" t="s">
@@ -3905,10 +3929,10 @@
       <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="K36" t="s">
+      <c r="J36" t="s">
         <v>166</v>
       </c>
-      <c r="M36" t="s">
+      <c r="L36" t="s">
         <v>172</v>
       </c>
       <c r="Q36" t="s">
@@ -3946,10 +3970,10 @@
       <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="L37" t="s">
+      <c r="K37" t="s">
         <v>168</v>
       </c>
-      <c r="N37" t="s">
+      <c r="M37" t="s">
         <v>174</v>
       </c>
       <c r="R37" t="s">
@@ -3989,10 +4013,10 @@
       <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="K38" t="s">
+      <c r="J38" t="s">
         <v>167</v>
       </c>
-      <c r="M38" t="s">
+      <c r="L38" t="s">
         <v>173</v>
       </c>
       <c r="Q38" t="s">

--- a/States M1.xlsx
+++ b/States M1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="359">
   <si>
     <t>Y0Y1</t>
   </si>
@@ -1090,6 +1090,9 @@
   </si>
   <si>
     <t>Y315</t>
+  </si>
+  <si>
+    <t>S_END11</t>
   </si>
 </sst>
 </file>
@@ -2127,11 +2130,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA38"/>
+  <dimension ref="A1:BB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV22" sqref="AV22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2144,38 +2147,37 @@
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9.140625" style="10"/>
     <col min="32" max="32" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.42578125" style="8" customWidth="1"/>
-    <col min="34" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" customWidth="1"/>
-    <col min="37" max="37" width="20.7109375" customWidth="1"/>
-    <col min="38" max="38" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.85546875" customWidth="1"/>
-    <col min="49" max="49" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.140625" customWidth="1"/>
-    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23.140625" customWidth="1"/>
+    <col min="53" max="53" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2293,8 +2295,11 @@
       <c r="AU1" s="9" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AV1" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2322,57 +2327,56 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>146944</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>146945</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>146946</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>146947</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>146948</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>146949</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>38403</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>57803</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>146950</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>146951</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>146952</v>
       </c>
-      <c r="AA2">
-        <v>4</v>
-      </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>156</v>
       </c>
-      <c r="AQ2">
+      <c r="AM2"/>
+      <c r="AN2" s="8"/>
+      <c r="AR2">
         <v>157</v>
       </c>
-      <c r="AW2" s="9"/>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AX2" s="9"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2403,13 +2407,13 @@
       <c r="R3" t="s">
         <v>204</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>203</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>229</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
       <c r="AF3" s="9" t="s">
@@ -2421,158 +2425,160 @@
       <c r="AH3" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="AK3" s="9"/>
-      <c r="AN3" s="9" t="s">
+      <c r="AL3" s="9"/>
+      <c r="AM3"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="AR3" s="9"/>
       <c r="AS3" s="9"/>
-      <c r="AT3" s="9" t="s">
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9" t="s">
         <v>355</v>
       </c>
       <c r="AV3" s="9"/>
       <c r="AW3" s="9"/>
-      <c r="AZ3" s="9"/>
+      <c r="AX3" s="9"/>
       <c r="BA3" s="9"/>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB3" s="9"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>175</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>176</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>177</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>226</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>227</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>228</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>233</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>234</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>235</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AN4" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AS4" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="AS4" s="9" t="s">
+      <c r="AT4" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="AT4" s="9" t="s">
+      <c r="AU4" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="AU4" s="9"/>
-      <c r="AX4" s="9" t="s">
+      <c r="AV4" s="9"/>
+      <c r="AY4" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="AY4" s="9" t="s">
+      <c r="AZ4" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="AZ4" s="9" t="s">
+      <c r="BA4" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="AA5">
+      <c r="AL5">
         <v>0</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="8"/>
+      <c r="AP5">
         <v>0</v>
       </c>
-      <c r="AL5">
+      <c r="AS5">
         <v>1</v>
       </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
+      <c r="AY5">
         <v>1</v>
       </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="K6" t="s">
         <v>151</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>231</v>
       </c>
       <c r="AG6" s="11"/>
       <c r="AS6" s="9"/>
-      <c r="BA6" s="14" t="s">
+      <c r="BB6" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="L7" t="s">
         <v>152</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>232</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>249</v>
       </c>
       <c r="AU7" s="9"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AV7" s="9"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2581,13 +2587,13 @@
       </c>
       <c r="AT9" s="9"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="AV10" s="9"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AW10" s="9"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2604,15 +2610,15 @@
       <c r="AI11" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="AO11" s="9" t="s">
+      <c r="AP11" s="9" t="s">
         <v>313</v>
       </c>
       <c r="AR11" s="9"/>
-      <c r="AU11" s="9" t="s">
+      <c r="AV11" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2629,15 +2635,15 @@
       <c r="AI12" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="AO12" s="9" t="s">
+      <c r="AP12" s="9" t="s">
         <v>314</v>
       </c>
       <c r="AR12" s="9"/>
-      <c r="AU12" s="9" t="s">
+      <c r="AV12" s="9" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2665,7 +2671,7 @@
       <c r="P13" t="s">
         <v>9</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>147</v>
       </c>
       <c r="AB13" s="9" t="s">
@@ -2681,11 +2687,14 @@
       <c r="AR13" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="AX13" s="9" t="s">
+      <c r="AV13" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY13" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2713,7 +2722,7 @@
       <c r="P14" t="s">
         <v>147</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>10</v>
       </c>
       <c r="AB14" s="9" t="s">
@@ -2729,11 +2738,14 @@
       <c r="AR14" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="AX14" s="9" t="s">
+      <c r="AV14" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY14" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2761,7 +2773,7 @@
       <c r="P15" t="s">
         <v>10</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>148</v>
       </c>
       <c r="AB15" s="9" t="s">
@@ -2777,11 +2789,14 @@
       <c r="AR15" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="AX15" s="9" t="s">
+      <c r="AV15" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY15" s="9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2809,7 +2824,7 @@
       <c r="P16" t="s">
         <v>148</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>13</v>
       </c>
       <c r="AB16" s="9" t="s">
@@ -2825,11 +2840,14 @@
       <c r="AR16" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="AX16" s="9" t="s">
+      <c r="AV16" s="9" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AY16" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2854,7 +2872,7 @@
       <c r="P17" t="s">
         <v>13</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>151</v>
       </c>
       <c r="AB17" s="9" t="s">
@@ -2870,11 +2888,14 @@
       <c r="AR17" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="AX17" s="9" t="s">
+      <c r="AV17" s="9" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AY17" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2899,7 +2920,7 @@
       <c r="P18" t="s">
         <v>151</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>14</v>
       </c>
       <c r="AB18" s="9" t="s">
@@ -2915,11 +2936,14 @@
       <c r="AR18" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="AX18" s="9" t="s">
+      <c r="AV18" s="9" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AY18" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2941,7 +2965,7 @@
       <c r="P19" t="s">
         <v>15</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>149</v>
       </c>
       <c r="AB19" s="9" t="s">
@@ -2957,11 +2981,14 @@
       <c r="AR19" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="AY19" s="9" t="s">
+      <c r="AV19" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ19" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2983,7 +3010,7 @@
       <c r="P20" t="s">
         <v>149</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>16</v>
       </c>
       <c r="AB20" s="9" t="s">
@@ -2999,11 +3026,14 @@
       <c r="AR20" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="AY20" s="9" t="s">
+      <c r="AV20" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AZ20" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3025,7 +3055,7 @@
       <c r="P21" t="s">
         <v>16</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>150</v>
       </c>
       <c r="AB21" s="9" t="s">
@@ -3041,11 +3071,14 @@
       <c r="AR21" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="AY21" s="9" t="s">
+      <c r="AV21" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AZ21" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3067,7 +3100,7 @@
       <c r="P22" t="s">
         <v>150</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>17</v>
       </c>
       <c r="AB22" s="9" t="s">
@@ -3083,15 +3116,18 @@
       <c r="AR22" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="AV22" s="12" t="s">
+      <c r="AV22" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AW22" s="13"/>
-      <c r="AY22" s="9" t="s">
+      <c r="AX22" s="13"/>
+      <c r="AZ22" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3110,7 +3146,7 @@
       <c r="P23" t="s">
         <v>17</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>152</v>
       </c>
       <c r="AB23" s="9" t="s">
@@ -3126,11 +3162,14 @@
       <c r="AR23" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="AY23" s="9" t="s">
+      <c r="AV23" s="11" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ23" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3146,7 +3185,7 @@
       <c r="P24" t="s">
         <v>152</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>18</v>
       </c>
       <c r="AB24" s="9" t="s">
@@ -3162,11 +3201,14 @@
       <c r="AR24" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="AY24" s="9" t="s">
+      <c r="AV24" s="11" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AZ24" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3255,11 +3297,14 @@
       <c r="AU25">
         <v>21</v>
       </c>
-      <c r="AX25">
+      <c r="AV25">
         <v>72684</v>
       </c>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AY25">
+        <v>72684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3350,14 +3395,17 @@
       <c r="AU26" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="AX26" s="9" t="s">
+      <c r="AV26" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY26" s="9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="AM27"/>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3463,17 +3511,20 @@
       <c r="AU28">
         <v>52</v>
       </c>
-      <c r="AW28">
+      <c r="AV28">
+        <v>104595</v>
+      </c>
+      <c r="AX28">
         <v>25624</v>
       </c>
-      <c r="AX28">
+      <c r="AY28">
         <v>104595</v>
       </c>
-      <c r="AY28">
+      <c r="AZ28">
         <v>25624</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3581,20 +3632,23 @@
       <c r="AU29" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="AW29" s="9" t="s">
+      <c r="AV29" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX29" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="AX29" s="9" t="s">
+      <c r="AY29" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="AY29" s="9" t="s">
+      <c r="AZ29" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="AM30"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3700,17 +3754,20 @@
       <c r="AU31">
         <v>159</v>
       </c>
-      <c r="AW31">
+      <c r="AV31">
+        <v>132251</v>
+      </c>
+      <c r="AX31">
         <v>53281</v>
       </c>
-      <c r="AX31">
+      <c r="AY31">
         <v>132251</v>
       </c>
-      <c r="AY31">
+      <c r="AZ31">
         <v>53281</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3818,13 +3875,16 @@
       <c r="AU32" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="AW32" s="9" t="s">
+      <c r="AV32" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="AX32" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="AX32" s="9" t="s">
+      <c r="AY32" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="AY32" s="9" t="s">
+      <c r="AZ32" s="9" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3922,6 +3982,9 @@
         <v>352</v>
       </c>
       <c r="AV35" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW35" s="9" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3935,29 +3998,35 @@
       <c r="L36" t="s">
         <v>172</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="P36" t="s">
         <v>197</v>
       </c>
-      <c r="S36" t="s">
+      <c r="R36" t="s">
         <v>200</v>
       </c>
-      <c r="W36" t="s">
+      <c r="V36" t="s">
         <v>220</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="X36" t="s">
         <v>223</v>
       </c>
-      <c r="AK36" s="9" t="s">
+      <c r="AF36" s="8"/>
+      <c r="AG36"/>
+      <c r="AJ36" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="AM36" s="9" t="s">
+      <c r="AL36" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="AQ36" s="9" t="s">
+      <c r="AM36"/>
+      <c r="AP36" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="AS36" s="9" t="s">
+      <c r="AR36" s="9" t="s">
         <v>310</v>
+      </c>
+      <c r="AV36" s="9" t="s">
+        <v>281</v>
       </c>
       <c r="AW36" s="9" t="s">
         <v>329</v>
@@ -3976,32 +4045,33 @@
       <c r="M37" t="s">
         <v>174</v>
       </c>
-      <c r="R37" t="s">
+      <c r="Q37" t="s">
         <v>199</v>
       </c>
-      <c r="T37" t="s">
+      <c r="S37" t="s">
         <v>202</v>
       </c>
-      <c r="X37" t="s">
+      <c r="W37" t="s">
         <v>222</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>225</v>
       </c>
-      <c r="AL37" s="9" t="s">
+      <c r="AF37" s="8"/>
+      <c r="AG37"/>
+      <c r="AK37" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="AM37"/>
-      <c r="AN37" s="9" t="s">
+      <c r="AM37" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="AR37" s="9" t="s">
+      <c r="AQ37" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="AT37" s="9" t="s">
+      <c r="AS37" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="AU37" s="9"/>
+      <c r="AT37" s="9"/>
       <c r="AX37" s="9" t="s">
         <v>324</v>
       </c>
@@ -4019,29 +4089,35 @@
       <c r="L38" t="s">
         <v>173</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="P38" t="s">
         <v>198</v>
       </c>
-      <c r="S38" t="s">
+      <c r="R38" t="s">
         <v>201</v>
       </c>
-      <c r="W38" t="s">
+      <c r="V38" t="s">
         <v>221</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="X38" t="s">
         <v>224</v>
       </c>
-      <c r="AK38" s="9" t="s">
+      <c r="AF38" s="8"/>
+      <c r="AG38"/>
+      <c r="AJ38" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="AM38" s="9" t="s">
+      <c r="AL38" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="AQ38" s="9" t="s">
+      <c r="AM38"/>
+      <c r="AP38" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="AS38" s="9" t="s">
+      <c r="AR38" s="9" t="s">
         <v>312</v>
+      </c>
+      <c r="AV38" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="AW38" s="9" t="s">
         <v>330</v>

--- a/States M1.xlsx
+++ b/States M1.xlsx
@@ -2133,8 +2133,8 @@
   <dimension ref="A1:BB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV22" sqref="AV22"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/States M1.xlsx
+++ b/States M1.xlsx
@@ -2133,8 +2133,8 @@
   <dimension ref="A1:BB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K36" sqref="K36"/>
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV22" sqref="AV22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
